--- a/External Data/reports/2016_termination_data.xlsx
+++ b/External Data/reports/2016_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD97CCBD-8A3C-4E5F-9671-19F3BD155C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D81BB5-73C3-4CF5-B04A-1AA75A8315CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1195" yWindow="15" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016_age" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2016_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2016_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2016_county" sheetId="10" r:id="rId10"/>
+    <sheet name="2016_monthly" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="181">
   <si>
     <t>15-17</t>
   </si>
@@ -540,6 +541,51 @@
   </si>
   <si>
     <t>Dilation Evacuation</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Resident Terminations_x000D_(n = 6,767)</t>
+  </si>
+  <si>
+    <t>Non-Resident Terminations_x000D_(n = 510)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -1402,12 +1448,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +1475,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1486,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1497,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +1508,7 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1473,7 +1519,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1530,7 @@
         <v>16.57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1541,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1506,7 +1552,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1563,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -1534,9 +1580,9 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1556,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1576,7 +1622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1596,7 +1642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1616,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1636,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1656,7 +1702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1676,7 +1722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1696,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1716,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1736,7 +1782,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1756,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -1776,7 +1822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -1796,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1816,7 +1862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1836,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -1856,7 +1902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1876,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -1896,7 +1942,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -1916,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -1936,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -1956,7 +2002,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1976,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -1996,7 +2042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -2016,7 +2062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -2036,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -2056,7 +2102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -2076,7 +2122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -2096,7 +2142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -2116,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -2136,7 +2182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -2156,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -2174,6 +2220,164 @@
       </c>
       <c r="F32" s="1">
         <v>6767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97472B4A-D919-441D-A6A9-557DD6C20B98}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>599</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3">
+        <v>607</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4">
+        <v>687</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5">
+        <v>661</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6">
+        <v>566</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7">
+        <v>552</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>549</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>530</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>530</v>
+      </c>
+      <c r="C10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>476</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12">
+        <v>502</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>508</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2189,12 +2393,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -2205,7 +2409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2216,7 +2420,7 @@
         <v>56.77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2431,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2238,7 +2442,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2249,7 +2453,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2464,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2475,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2486,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C19" s="4"/>
     </row>
   </sheetData>
@@ -2309,12 +2513,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2325,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2336,7 +2540,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2347,7 +2551,7 @@
         <v>91.73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +2562,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2374,13 +2578,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2391,7 +2595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2402,7 +2606,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +2617,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2424,7 +2628,7 @@
         <v>33.92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2435,7 +2639,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2446,7 +2650,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2457,7 +2661,7 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2468,7 +2672,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2479,7 +2683,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2490,7 +2694,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="7"/>
     </row>
   </sheetData>
@@ -2503,17 +2707,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2524,7 +2728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -2535,7 +2739,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -2546,7 +2750,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2568,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2579,7 +2783,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="6"/>
     </row>
   </sheetData>
@@ -2607,13 +2811,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="53.54296875" customWidth="1"/>
     <col min="2" max="2" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -2627,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2641,7 +2845,7 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2655,7 +2859,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2669,7 +2873,7 @@
         <v>38.99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2887,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2697,7 +2901,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2711,7 +2915,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2725,7 +2929,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2739,7 +2943,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2755,13 +2959,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2775,7 +2979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2786,7 +2990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2797,7 +3001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2808,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2832,13 +3036,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>157</v>
       </c>
@@ -2849,7 +3053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
@@ -2860,7 +3064,7 @@
         <v>79.180000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2871,7 +3075,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -2882,7 +3086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -2893,7 +3097,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -2917,7 +3121,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="7.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" customWidth="1"/>
@@ -2925,7 +3129,7 @@
     <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="8" t="s">
         <v>163</v>
       </c>
@@ -2942,7 +3146,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
@@ -2959,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2976,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
@@ -2993,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -3010,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -3027,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C8" s="1"/>
     </row>
   </sheetData>
